--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/4.1 CONTROL DE CONFIRMACIONES.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/4.1 CONTROL DE CONFIRMACIONES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533A6C98-4CFC-4589-9BB2-10A1C6124879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -85,12 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">            Circularización </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Entidad XXXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Auditoria de Estados Financieros</t>
   </si>
   <si>
     <t>DEVUELTA POR CORREO</t>
@@ -220,12 +209,6 @@
     <t>SALDO SEGÚN REGISTROS</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                 Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                        Control de Confirmaciones Bancarias</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                               </t>
   </si>
   <si>
@@ -245,14 +228,26 @@
   </si>
   <si>
     <t>A-4</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Control de Confirmaciones Bancarias</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -524,9 +519,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -537,9 +532,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,23 +561,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,6 +661,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -742,7 +740,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Flecha arriba 1"/>
+        <xdr:cNvPr id="2" name="Flecha arriba 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -804,7 +808,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -865,7 +875,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Flecha arriba 3"/>
+        <xdr:cNvPr id="4" name="Flecha arriba 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -916,17 +932,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C11:J16" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="C11:J16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="C11:J16" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="C11:J16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="NÚMERO DE CUENTA" totalsRowLabel="Total" dataDxfId="7"/>
-    <tableColumn id="2" name="BANCO" dataDxfId="6"/>
-    <tableColumn id="3" name="SALDO CONFIRMADO" dataDxfId="5"/>
-    <tableColumn id="4" name="SALDO SEGÚN REGISTROS" dataDxfId="4"/>
-    <tableColumn id="5" name="DIFERENCIAS" dataDxfId="3"/>
-    <tableColumn id="6" name="DOCUMENTO DE SOPORTE DEL BANCO" dataDxfId="2"/>
-    <tableColumn id="7" name="FECHA" dataDxfId="1"/>
-    <tableColumn id="8" name="OBSERVACIONES" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NÚMERO DE CUENTA" totalsRowLabel="Total" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="BANCO" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SALDO CONFIRMADO" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SALDO SEGÚN REGISTROS" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DIFERENCIAS" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DOCUMENTO DE SOPORTE DEL BANCO" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="OBSERVACIONES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1228,7 +1244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1243,11 +1259,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E5" sqref="E5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,8 +1316,8 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="9" t="s">
-        <v>66</v>
+      <c r="L3" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="M3" s="5"/>
     </row>
@@ -1321,11 +1337,11 @@
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6"/>
+      <c r="E5" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -1334,48 +1350,48 @@
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="6"/>
+      <c r="E6" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -1384,10 +1400,10 @@
       <c r="E9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -1396,182 +1412,182 @@
       <c r="E10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="13"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="40" t="s">
+      <c r="F11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>27</v>
+      <c r="I11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>25</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="35">
+      <c r="B12" s="35"/>
+      <c r="C12" s="34">
         <v>1234567890</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="H12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="35" t="s">
+      <c r="I12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="J12" s="34" t="s">
         <v>31</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>33</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="35">
+      <c r="B13" s="37"/>
+      <c r="C13" s="34">
         <v>987654321</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="H13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="I13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="J13" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>40</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
-      <c r="C14" s="35">
+      <c r="B14" s="35"/>
+      <c r="C14" s="34">
         <v>1122334455</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="I14" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="J14" s="34" t="s">
         <v>45</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>47</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="35">
+      <c r="B15" s="37"/>
+      <c r="C15" s="34">
         <v>2233445566</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="I15" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>33</v>
+      <c r="J15" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="35">
+      <c r="B16" s="35"/>
+      <c r="C16" s="34">
         <v>3344556677</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="G16" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="I16" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>40</v>
+      <c r="J16" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -1585,110 +1601,110 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="44" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="H19" s="23" t="s">
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="H19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="20" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="23" t="s">
+      <c r="F20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="23"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="H21" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="25"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="H21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="24"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="B22" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="B23" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="B24" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="B25" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
@@ -1697,100 +1713,100 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="48"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="B29" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="I31" s="22"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="I31" s="21"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="I32" s="22"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="I32" s="21"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="2:13" s="51" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="s">
+    <row r="33" spans="2:13" s="50" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="I33" s="52"/>
-      <c r="M33" s="53"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="I33" s="51"/>
+      <c r="M33" s="52"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
@@ -1807,7 +1823,7 @@
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -1820,7 +1836,7 @@
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -1832,24 +1848,24 @@
       <c r="M44" s="5"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="49" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.25">
@@ -1860,6 +1876,12 @@
       <c r="M51" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E5:G5"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
